--- a/public/assets/files/PlantillaClientes.xlsx
+++ b/public/assets/files/PlantillaClientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissa/Dropbox/phormo/etax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7EC47D4-CFF3-4B38-81CF-04CD563DBD6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98946822-B3DA-764B-ADA1-3D4CC027B589}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,811 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>eTax</author>
+    <author>Usuario de Microsoft Office</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{67B67D71-C017-D54B-B812-D9D1E1A544AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Código de cliente:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">El código de cliente es un código definido por usted que se utiliza para ordenar  sus clientes en eTax.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Digite el código previamente creado en eTax para clientes existentes, o bien, defina un código nuevo para clientes nuevos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0F97FF03-7BDD-DB4C-A6E6-8D9FE7E44477}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Código de identificación:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - Cédula física
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - Cédula jurídica
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - DIMEX
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - NITE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - Extranjero
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6 - Otro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{173BBB13-FA4B-194B-ABB9-6581029A45CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sobre el número de identificación:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Escriba el número sin guiones. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>En el caso de cédulas físicas, el número debe contener 9 dígitos. Si el número de cédula es más corto, complete con ceros.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{27BED091-8A71-DA46-A3B4-5E74EEAE8896}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sobre el correo electrónico:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>En caso de utilizar eTax como sistema de facturación electrónica, este será el correo al que se le enviará la factura electrónica y demás documentación.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{11909824-D6D8-334F-8EDE-290E5D78864B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>País:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Utilice como guía el documento adjunto.
+La sigla debe tener dos letras.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{A7E26DD4-BD0D-1140-9801-66B19D7B248B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Provincias de Costa Rica:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - San José
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - Alajuela
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - Cartago 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - Heredia
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Guanacaste</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6 - Puntarenas
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7 - Limón
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente a la provincia.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{BD03C317-448D-CE4B-8399-DAC7A3D29874}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cantón:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Utilize como guía el documento adjunto para identificar el código que corresponde. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">El código es un número de 3 dígitos donde el primer número corresponde al número de provincia y los siguientes dos al número de cantón dentro de la provincia.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente al cantón.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{E81F30FA-8A15-754F-BB5B-5547CE184240}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Distrito:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Utilize como guía el documento adjunto para identificar el código que corresponde. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">El código es un número de 5 dígitos donde el primer número corresponde al número de provincia, los siguientes dos al número de cantón y los últimos dos al número de distrito.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente al distrito.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{3277290E-2966-6648-BEAA-AF1E2E1303DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Barrio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Utilice como guía el documento adjunto para identificar los nombres oficiales de barrios. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>al barrio.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{029FCB90-D2D3-DB47-9360-A7AA53EDA67D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sobre el código de área:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Para Costa Rica, digitar 506</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{0A707099-F723-AD4F-98E6-BA36704E79C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sobre la copia del correo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Si no desea enviar copias, deje en blanco.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Codigo</t>
   </si>
@@ -85,18 +888,12 @@
     <t>CODEJ</t>
   </si>
   <si>
-    <t>Cliente Ejemplo</t>
-  </si>
-  <si>
     <t>Apelllido1</t>
   </si>
   <si>
     <t>Apellido2</t>
   </si>
   <si>
-    <t>1-XXXX-XXXX</t>
-  </si>
-  <si>
     <t>nombre@correo.com</t>
   </si>
   <si>
@@ -104,13 +901,98 @@
   </si>
   <si>
     <t>1234-1234</t>
+  </si>
+  <si>
+    <t>Indique el código de cliente utilizado en eTax.</t>
+  </si>
+  <si>
+    <t>Elija el código equivalente al tipo de identificación del cliente.</t>
+  </si>
+  <si>
+    <t>Indíque el número de identificación del cliente.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Bienvenido al sistema de importación de clientes vía excel de eTax. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Complete los datos de sus clientes en las celdas corresopndientes (a partir de la fila 4, inclusive). Cada cliente se detalla en su propia fila.
+Pase su cursor por las celdas de la segunda fila marcadas con un triángulo en la esquina superior derecha para ver más detalles sobre la información que debe digitar.
+No modifique los textos de la tercera fila. Estos son necesarios para la correcta lectura del documento.</t>
+    </r>
+  </si>
+  <si>
+    <t>Indique en siglas el país del cliente</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX</t>
+  </si>
+  <si>
+    <t>Indique el número que corresponde a la provincia del cliente.</t>
+  </si>
+  <si>
+    <t>Indique el nombre del cliente</t>
+  </si>
+  <si>
+    <t>Indique el primer apellido del cliente</t>
+  </si>
+  <si>
+    <t>Indique el segundo apellido del cliente</t>
+  </si>
+  <si>
+    <t>Indique el correo electrónico del cliente.</t>
+  </si>
+  <si>
+    <t>Elija el número que corresponde al cantón del cliente.</t>
+  </si>
+  <si>
+    <t>Elija el número que corresponde al distrito del cliente.</t>
+  </si>
+  <si>
+    <t>Indíque el barrio del cliente.</t>
+  </si>
+  <si>
+    <t>Indique la dirección del cliente</t>
+  </si>
+  <si>
+    <t>Indique el código de área del teléfono del cliente de acuerdo al país.</t>
+  </si>
+  <si>
+    <t>Indique el número de teléfono</t>
+  </si>
+  <si>
+    <t>Indique la dirección de correo electrónico a la que se le enviará una copia de la factura electrónica.</t>
+  </si>
+  <si>
+    <t>Elija la opción que indica si el cliente regularmente está exento (SÍ) o no (NO)</t>
+  </si>
+  <si>
+    <t>Indique si el cliente es emisor (E), receptor (R), o emisor y receptor de facturación electrónia (ER)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -120,6 +1002,48 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="34"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,12 +1067,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -165,8 +1108,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R2">
-  <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:R4">
+  <autoFilter ref="A3:R4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codigo"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre"/>
@@ -174,7 +1117,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SegundoApellido"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TipoPersona"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Identificacion"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Correo" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Correo"/>
     <tableColumn id="19" xr3:uid="{D31E5BE9-9174-423A-ACFA-BD29570B1F95}" name="Pais"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Provincia"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Canton"/>
@@ -183,7 +1126,7 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Direccion"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="AreaTel"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Telefono"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="CorreosCopia" dataCellStyle="Hyperlink"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="CorreosCopia"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Exento"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="EmisorReceptor"/>
   </tableColumns>
@@ -192,7 +1135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -487,135 +1430,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="18" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O3" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J4">
+        <v>101</v>
+      </c>
+      <c r="K4">
+        <v>10101</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>101</v>
-      </c>
-      <c r="K2">
-        <v>10101</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:W1"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{FB5AAD66-7B56-EC41-89B1-925E7155AB49}">
+      <formula1>"1, 2, 3, 4, 5, 6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4" xr:uid="{FD64E9DF-C202-6D40-8A35-F9E0D6012FAE}">
+      <formula1>"E,R,ER"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{3F792A50-2C73-3045-9F03-4CB2152D0231}">
+      <formula1>"SÍ,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{29DD8F2F-81ED-46C6-998A-A4AB7A019606}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{FFE41E9D-3233-495D-BE64-74207D3A2BEF}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{29DD8F2F-81ED-46C6-998A-A4AB7A019606}"/>
+    <hyperlink ref="P4" r:id="rId2" xr:uid="{FFE41E9D-3233-495D-BE64-74207D3A2BEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/public/assets/files/PlantillaClientes.xlsx
+++ b/public/assets/files/PlantillaClientes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissa/Dropbox/phormo/etax/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissa/Dropbox/PHORMO/phormo-equipo/Clientes/eTax/app - plantillas excel/versión agosto/con código postal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98946822-B3DA-764B-ADA1-3D4CC027B589}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9718D61-03A1-CB43-9DA1-8DFD586AC596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,8 +297,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Utilice como guía el documento adjunto.
-La sigla debe tener dos letras.</t>
+          <t xml:space="preserve">Utilice como guía el listado de esta página web.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">https://countrycode.org/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>La sigla debe tener dos letras.</t>
         </r>
       </text>
     </comment>
@@ -312,147 +350,59 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Provincias de Costa Rica:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 - San José
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 - Alajuela
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 - Cartago 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 - Heredia
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5 - </t>
+          <t>Código postal de Costa Rica:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">En caso de que el cliente sea de Costa Rica, consulte el código postal aquí: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Guanacaste</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6 - Puntarenas
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">7 - Limón
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente a la provincia.</t>
+          </rPr>
+          <t>https://www.correos.go.cr/nosotros/codigopostal/busqueda.html</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{BD03C317-448D-CE4B-8399-DAC7A3D29874}">
+    <comment ref="J2" authorId="1" shapeId="0" xr:uid="{3277290E-2966-6648-BEAA-AF1E2E1303DC}">
       <text>
         <r>
           <rPr>
@@ -462,90 +412,61 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Cantón:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Utilize como guía el documento adjunto para identificar el código que corresponde. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">El código es un número de 3 dígitos donde el primer número corresponde al número de provincia y los siguientes dos al número de cantón dentro de la provincia.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente al cantón.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>Barrio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Utilice como guía el documento adjunto para identificar los nombres oficiales de barrios. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente al barrio.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{E81F30FA-8A15-754F-BB5B-5547CE184240}">
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{029FCB90-D2D3-DB47-9360-A7AA53EDA67D}">
       <text>
         <r>
           <rPr>
@@ -555,206 +476,31 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Distrito:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Utilize como guía el documento adjunto para identificar el código que corresponde. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">El código es un número de 5 dígitos donde el primer número corresponde al número de provincia, los siguientes dos al número de cantón y los últimos dos al número de distrito.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente al distrito.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t xml:space="preserve">Sobre el código de área:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Para Costa Rica, digitar 506</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{3277290E-2966-6648-BEAA-AF1E2E1303DC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Barrio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Utilice como guía el documento adjunto para identificar los nombres oficiales de barrios. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="34"/>
-          </rPr>
-          <t xml:space="preserve">En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="34"/>
-          </rPr>
-          <t>al barrio.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="34"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{029FCB90-D2D3-DB47-9360-A7AA53EDA67D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Sobre el código de área:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Para Costa Rica, digitar 506</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{0A707099-F723-AD4F-98E6-BA36704E79C1}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{0A707099-F723-AD4F-98E6-BA36704E79C1}">
       <text>
         <r>
           <rPr>
@@ -823,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Codigo</t>
   </si>
@@ -834,15 +580,6 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Canton</t>
-  </si>
-  <si>
-    <t>Distrito</t>
-  </si>
-  <si>
     <t>Barrio</t>
   </si>
   <si>
@@ -910,6 +647,51 @@
   </si>
   <si>
     <t>Indíque el número de identificación del cliente.</t>
+  </si>
+  <si>
+    <t>Indique en siglas el país del cliente</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX</t>
+  </si>
+  <si>
+    <t>Indique el nombre del cliente</t>
+  </si>
+  <si>
+    <t>Indique el primer apellido del cliente</t>
+  </si>
+  <si>
+    <t>Indique el segundo apellido del cliente</t>
+  </si>
+  <si>
+    <t>Indique el correo electrónico del cliente.</t>
+  </si>
+  <si>
+    <t>Indíque el barrio del cliente.</t>
+  </si>
+  <si>
+    <t>Indique la dirección del cliente</t>
+  </si>
+  <si>
+    <t>Indique el código de área del teléfono del cliente de acuerdo al país.</t>
+  </si>
+  <si>
+    <t>Indique el número de teléfono</t>
+  </si>
+  <si>
+    <t>Indique la dirección de correo electrónico a la que se le enviará una copia de la factura electrónica.</t>
+  </si>
+  <si>
+    <t>Elija la opción que indica si el cliente regularmente está exento (SÍ) o no (NO)</t>
+  </si>
+  <si>
+    <t>Indique si el cliente es emisor (E), receptor (R), o emisor y receptor de facturación electrónia (ER)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <r>
@@ -928,71 +710,26 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Complete los datos de sus clientes en las celdas corresopndientes (a partir de la fila 4, inclusive). Cada cliente se detalla en su propia fila.
+Complete los datos de sus clientes en las celdas correspondientes (a partir de la fila 4, inclusive). Cada cliente se detalla en su propia fila.
 Pase su cursor por las celdas de la segunda fila marcadas con un triángulo en la esquina superior derecha para ver más detalles sobre la información que debe digitar.
 No modifique los textos de la tercera fila. Estos son necesarios para la correcta lectura del documento.</t>
     </r>
   </si>
   <si>
-    <t>Indique en siglas el país del cliente</t>
-  </si>
-  <si>
-    <t>XXXXXXXXX</t>
-  </si>
-  <si>
-    <t>Indique el número que corresponde a la provincia del cliente.</t>
-  </si>
-  <si>
-    <t>Indique el nombre del cliente</t>
-  </si>
-  <si>
-    <t>Indique el primer apellido del cliente</t>
-  </si>
-  <si>
-    <t>Indique el segundo apellido del cliente</t>
-  </si>
-  <si>
-    <t>Indique el correo electrónico del cliente.</t>
-  </si>
-  <si>
-    <t>Elija el número que corresponde al cantón del cliente.</t>
-  </si>
-  <si>
-    <t>Elija el número que corresponde al distrito del cliente.</t>
-  </si>
-  <si>
-    <t>Indíque el barrio del cliente.</t>
-  </si>
-  <si>
-    <t>Indique la dirección del cliente</t>
-  </si>
-  <si>
-    <t>Indique el código de área del teléfono del cliente de acuerdo al país.</t>
-  </si>
-  <si>
-    <t>Indique el número de teléfono</t>
-  </si>
-  <si>
-    <t>Indique la dirección de correo electrónico a la que se le enviará una copia de la factura electrónica.</t>
-  </si>
-  <si>
-    <t>Elija la opción que indica si el cliente regularmente está exento (SÍ) o no (NO)</t>
-  </si>
-  <si>
-    <t>Indique si el cliente es emisor (E), receptor (R), o emisor y receptor de facturación electrónia (ER)</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>CódigoPostal</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>Indique el código postal del cliente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1045,6 +782,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1070,12 +812,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1089,6 +825,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1108,9 +850,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:R4">
-  <autoFilter ref="A3:R4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:P4">
+  <autoFilter ref="A3:P4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codigo"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PrimerApellido"/>
@@ -1119,9 +861,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Identificacion"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Correo"/>
     <tableColumn id="19" xr3:uid="{D31E5BE9-9174-423A-ACFA-BD29570B1F95}" name="Pais"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Provincia"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Canton"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Distrito"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CódigoPostal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Barrio"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Direccion"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="AreaTel"/>
@@ -1431,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1439,93 +1179,85 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="20.83203125" customWidth="1"/>
+    <col min="1" max="16" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1533,128 +1265,116 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="R3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>31</v>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>101</v>
-      </c>
-      <c r="K4">
-        <v>10101</v>
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
       </c>
       <c r="L4" t="s">
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A1:U1"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{FB5AAD66-7B56-EC41-89B1-925E7155AB49}">
       <formula1>"1, 2, 3, 4, 5, 6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4" xr:uid="{FD64E9DF-C202-6D40-8A35-F9E0D6012FAE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{FD64E9DF-C202-6D40-8A35-F9E0D6012FAE}">
       <formula1>"E,R,ER"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{3F792A50-2C73-3045-9F03-4CB2152D0231}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4" xr:uid="{3F792A50-2C73-3045-9F03-4CB2152D0231}">
       <formula1>"SÍ,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{29DD8F2F-81ED-46C6-998A-A4AB7A019606}"/>
-    <hyperlink ref="P4" r:id="rId2" xr:uid="{FFE41E9D-3233-495D-BE64-74207D3A2BEF}"/>
+    <hyperlink ref="N4" r:id="rId2" xr:uid="{FFE41E9D-3233-495D-BE64-74207D3A2BEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
